--- a/biology/Botanique/Spathiphyllum_humboldtii/Spathiphyllum_humboldtii.xlsx
+++ b/biology/Botanique/Spathiphyllum_humboldtii/Spathiphyllum_humboldtii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spathiphyllum humboldtii est une espèce de plantes à fleurs de la famille des Araceae. C'est une plante herbacée néotropicale.
-Elle est connue en Guyane sous les noms génériques de Pulupululi ãtã, Pulupululi sili, Tayau kɨ'~ɨy (Wayãpi), Wakaakig kamwi (Palikur). Ces noms désignent aussi d'autres Araceae de sous-bois (ex : Dieffenbachia spp.)[2].
+Elle est connue en Guyane sous les noms génériques de Pulupululi ãtã, Pulupululi sili, Tayau kɨ'~ɨy (Wayãpi), Wakaakig kamwi (Palikur). Ces noms désignent aussi d'autres Araceae de sous-bois (ex : Dieffenbachia spp.).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Spathiphyllum humboldtii est une plante herbacée terrestre formant de grosses touffes.
 Les tiges ont un diamètre de 2-2,5 cm avec des entrenœuds courts.
@@ -525,7 +539,7 @@
 Le spadice vert pâle à blanchâtre, stipité sur 1 à 2,5 cm, cylindrique, long de (5)7-10(16) cm pour 1 cm de diamètre
 Le périanthe est composé 4–6(7) tépales, séparés au moins à l'apex, et longs d'environ 1,6 mm. 
 Le pistil 1,5 à 2 fois plus long que le périanthe comporte un style ± oblong dont le contour et brièvement rétréci en un stigmate en forme de brosse 
-L'ovaire long d'environ 3 mm, de forme oblongue, à 3 ou 4 loges, chacune contenant environ 1 ovule[3],[4],[5].
+L'ovaire long d'environ 3 mm, de forme oblongue, à 3 ou 4 loges, chacune contenant environ 1 ovule.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spathiphyllum humboldtii est présent au Venezuela (bassin du Río Casiquiare), au Suriname, en Guyane, en Amazonie péruvienne, et au nord du Brésil[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spathiphyllum humboldtii est présent au Venezuela (bassin du Río Casiquiare), au Suriname, en Guyane, en Amazonie péruvienne, et au nord du Brésil.
 </t>
         </is>
       </c>
@@ -585,11 +601,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spathiphyllum humboldtii est une plante herbacée commune ou occasionnelle des bas-fonds humides de la forêt ancienne[2], au bord des cours d'eau forestiers et les forêts inondables autour de 100-200 m d'altitude[5].
-Elle fleurit en Guyane en novembre, décembre, février, avril, et fructifierait en décembre-avril[3].
-La biologie de la pollinisation de Spathiphyllum humboldtii a été étudiée [6],[7],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spathiphyllum humboldtii est une plante herbacée commune ou occasionnelle des bas-fonds humides de la forêt ancienne, au bord des cours d'eau forestiers et les forêts inondables autour de 100-200 m d'altitude.
+Elle fleurit en Guyane en novembre, décembre, février, avril, et fructifierait en décembre-avril.
+La biologie de la pollinisation de Spathiphyllum humboldtii a été étudiée .
 </t>
         </is>
       </c>
@@ -618,10 +636,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sève irritante de Spathiphyllum humboldtii et d'autres Araceae du sous-bois (ex : Dieffenbachia elegans) est connue pour brûler fortement la peau chez les Wayãpi et les Palikur, blessures soignées en frottant sur la plaie de la cendre (ou éventuellement du sable)[2].
-D'autres espèces de ce genre sont utilisées à diverses fins médicinales dans plusieurs pays d'Amérique latine[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sève irritante de Spathiphyllum humboldtii et d'autres Araceae du sous-bois (ex : Dieffenbachia elegans) est connue pour brûler fortement la peau chez les Wayãpi et les Palikur, blessures soignées en frottant sur la plaie de la cendre (ou éventuellement du sable).
+D'autres espèces de ce genre sont utilisées à diverses fins médicinales dans plusieurs pays d'Amérique latine.
 			Population de Spathiphyllum humboldtii dans le sous-bois forestier d'une forêt secondaire en Montagne de Kaw (sentier des coq-de-roches, D6 Route de Kaw, Roura, Guyane)
 			Pied de Spathiphyllum humboldtii au bord de la Mataroni (Régina, Guyane)
 			Feuilles de Spathiphyllum humboldtii (prédatées par les poissons)
